--- a/Masjid/output/SPMD03870/RekodBantuan.xlsx
+++ b/Masjid/output/SPMD03870/RekodBantuan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>MASJID JAMIUL SHARIF POKOK MACHANG</t>
   </si>
@@ -143,7 +143,7 @@
     <t>BARANG DAPUR</t>
   </si>
   <si>
-    <t>ISMAIL BIN HAJI SÀAD</t>
+    <t>ISMAIL BIN HAJI SÃƒâ‚¬AD</t>
   </si>
   <si>
     <t>0135146557</t>
@@ -619,6 +619,27 @@
   </si>
   <si>
     <t>ENSON BINTI SAAD</t>
+  </si>
+  <si>
+    <t>AHMAD SUHAIMI BIN ISHAK @ A BAKAR</t>
+  </si>
+  <si>
+    <t>0194748090</t>
+  </si>
+  <si>
+    <t>NO.8,LORONG DESA SENA 5, TAMAN DESA SENA,13300 SEBERANG PERAI UTARA (KEPALA BATAS),PULAU PINANG</t>
+  </si>
+  <si>
+    <t>Lain-Lain</t>
+  </si>
+  <si>
+    <t>2023-04-30</t>
+  </si>
+  <si>
+    <t>mohon pengesahan bantuan dermasiswa zakat pulau pinang</t>
+  </si>
+  <si>
+    <t>DOWNLOAD FORM DALAM WEBSITE ZAKAT</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1034,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B6" sqref="B6"/>
@@ -4187,6 +4208,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="69" spans="1:18">
+      <c r="B69" s="3">
+        <v>64</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="3">
+        <v>640819075867</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I69" s="3">
+        <v>6</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
